--- a/QDM065_logs/QDM065-Summary.xlsx
+++ b/QDM065_logs/QDM065-Summary.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,10 +527,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Env Provisioned</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Env Wifi</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>NTC</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Charge Current</t>
         </is>
@@ -594,10 +604,18 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>1494142.413139</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1.23468</v>
       </c>
     </row>
@@ -659,10 +677,18 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>1510702.967644</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>1.241141</v>
       </c>
     </row>
@@ -724,10 +750,18 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>1535485.982895</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.236062</v>
       </c>
     </row>
@@ -789,10 +823,18 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>1481426.358223</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>1.231063</v>
       </c>
     </row>
@@ -854,10 +896,18 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>1508414.745331</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>1.240085</v>
       </c>
     </row>
@@ -919,10 +969,18 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>1470257.639885</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>1.242807</v>
       </c>
     </row>
@@ -984,10 +1042,18 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>1498557.925224</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>1.231876</v>
       </c>
     </row>
@@ -1049,10 +1115,18 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>1545805.931091</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>1.235086</v>
       </c>
     </row>
@@ -1114,10 +1188,18 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>1546718.478203</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>1.244067</v>
       </c>
     </row>
@@ -1179,10 +1261,18 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>1506814.360619</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>1.078533</v>
       </c>
     </row>
@@ -1244,10 +1334,18 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>1493994.59362</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>1.245327</v>
       </c>
     </row>
@@ -1309,10 +1407,18 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>1493685.245514</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>1.235411</v>
       </c>
     </row>
@@ -1374,10 +1480,18 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>1508459.448814</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>1.235289</v>
       </c>
     </row>
@@ -1439,10 +1553,18 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>1490025.520325</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>1.245164</v>
       </c>
     </row>
@@ -1504,10 +1626,18 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>1528521.180153</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>1.2398</v>
       </c>
     </row>
@@ -1569,10 +1699,18 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>1517415.046692</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>1.23724</v>
       </c>
     </row>
@@ -1634,10 +1772,18 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>1525636.315346</t>
         </is>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>1.25829</v>
       </c>
     </row>
@@ -1699,10 +1845,18 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>1506793.498993</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>1.253576</v>
       </c>
     </row>
@@ -1764,10 +1918,18 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>1551719.307899</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>1.242848</v>
       </c>
     </row>
@@ -1829,10 +1991,18 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>1482555.866241</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>1.244311</v>
       </c>
     </row>
@@ -1894,10 +2064,18 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>1471644.043922</t>
         </is>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>1.240735</v>
       </c>
     </row>
@@ -1959,10 +2137,18 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>1514110.565186</t>
         </is>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>1.258602</v>
       </c>
     </row>
@@ -2024,10 +2210,18 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>1507988.572121</t>
         </is>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>1.255079</v>
       </c>
     </row>
@@ -2089,10 +2283,18 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>1539167.761803</t>
         </is>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>1.237118</v>
       </c>
     </row>
@@ -2154,10 +2356,18 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>1542121.767998</t>
         </is>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>1.237931</v>
       </c>
     </row>
@@ -2219,10 +2429,18 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>1483013.033867</t>
         </is>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>1.244473</v>
       </c>
     </row>
@@ -2284,10 +2502,18 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>1574385.762215</t>
         </is>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>1.437148</v>
       </c>
     </row>
@@ -2349,10 +2575,18 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>1495819.091797</t>
         </is>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>1.232933</v>
       </c>
     </row>
@@ -2414,10 +2648,18 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>1512208.580971</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>1.24301</v>
       </c>
     </row>
@@ -2479,10 +2721,18 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>1509129.405022</t>
         </is>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>1.255242</v>
       </c>
     </row>
@@ -2544,10 +2794,18 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>1485105.156898</t>
         </is>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>1.227447</v>
       </c>
     </row>
@@ -2609,10 +2867,18 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>1538736.820221</t>
         </is>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>1.234314</v>
       </c>
     </row>
@@ -2674,10 +2940,18 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>1517829.89502</t>
         </is>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>1.232689</v>
       </c>
     </row>
@@ -2739,10 +3013,18 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>1510535.478592</t>
         </is>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>1.462527</v>
       </c>
     </row>
@@ -2804,10 +3086,18 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>1508716.344833</t>
         </is>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>3.528045</v>
       </c>
     </row>
@@ -2869,10 +3159,18 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>1489461.064339</t>
         </is>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>1.235371</v>
       </c>
     </row>
@@ -2934,10 +3232,18 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>1489945.650101</t>
         </is>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>1.275276</v>
       </c>
     </row>
@@ -2999,10 +3305,18 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>1507565.379143</t>
         </is>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>1.240857</v>
       </c>
     </row>
@@ -3064,10 +3378,18 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>1504858.136177</t>
         </is>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>1.230901</v>
       </c>
     </row>
@@ -3129,10 +3451,18 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>1508337.259293</t>
         </is>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>1.233867</v>
       </c>
     </row>
@@ -3194,10 +3524,18 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>1485083.699226</t>
         </is>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>1.244473</v>
       </c>
     </row>
@@ -3259,10 +3597,18 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>1498550.772667</t>
         </is>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>1.259834</v>
       </c>
     </row>
@@ -3324,10 +3670,18 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>1537275.314331</t>
         </is>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>1.239353</v>
       </c>
     </row>
@@ -3389,10 +3743,18 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>1499364.972115</t>
         </is>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>1.24236</v>
       </c>
     </row>
@@ -3454,10 +3816,18 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>1507999.897003</t>
         </is>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>1.253698</v>
       </c>
     </row>
@@ -3519,10 +3889,18 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>1537528.634071</t>
         </is>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -3584,10 +3962,18 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
           <t>1499885.91671</t>
         </is>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>1.257314</v>
       </c>
     </row>
@@ -3649,10 +4035,18 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>1526314.020157</t>
         </is>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>1.248374</v>
       </c>
     </row>
@@ -3714,10 +4108,18 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>1482112.407684</t>
         </is>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>1.242645</v>
       </c>
     </row>
@@ -3779,10 +4181,18 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>1507829.427719</t>
         </is>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>9.328884</v>
       </c>
     </row>
@@ -3844,10 +4254,18 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>1528279.781342</t>
         </is>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>1.255851</v>
       </c>
     </row>
@@ -3909,10 +4327,18 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>1486668.586731</t>
         </is>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>1.227853</v>
       </c>
     </row>
@@ -3974,10 +4400,18 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
           <t>1497761.011124</t>
         </is>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>1.245733</v>
       </c>
     </row>
@@ -4039,10 +4473,18 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>1489774.58477</t>
         </is>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>1.250366</v>
       </c>
     </row>
@@ -4104,10 +4546,18 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>1558118.462563</t>
         </is>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>1.248903</v>
       </c>
     </row>
@@ -4169,10 +4619,18 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>1494334.936142</t>
         </is>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>1.245814</v>
       </c>
     </row>
@@ -4234,10 +4692,18 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>1521222.5914</t>
         </is>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>1.26154</v>
       </c>
     </row>
@@ -4299,10 +4765,18 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>1501048.803329</t>
         </is>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>1.238378</v>
       </c>
     </row>
@@ -4364,10 +4838,18 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
           <t>1470674.276352</t>
         </is>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>1.255973</v>
       </c>
     </row>
@@ -4429,10 +4911,18 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
           <t>1482309.699059</t>
         </is>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>1.241588</v>
       </c>
     </row>
@@ -4494,10 +4984,18 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>1540302.038193</t>
         </is>
       </c>
-      <c r="Q62" t="n">
+      <c r="S62" t="n">
         <v>1.247562</v>
       </c>
     </row>
@@ -4559,10 +5057,18 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
           <t>1496621.966362</t>
         </is>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>1.244026</v>
       </c>
     </row>
@@ -4624,10 +5130,18 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
           <t>1501863.598824</t>
         </is>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>1.246383</v>
       </c>
     </row>
@@ -4689,10 +5203,18 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>1493260.264397</t>
         </is>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>1.236183</v>
       </c>
     </row>
@@ -4754,10 +5276,18 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>1495231.389999</t>
         </is>
       </c>
-      <c r="Q66" t="n">
+      <c r="S66" t="n">
         <v>1.237971</v>
       </c>
     </row>
@@ -4819,10 +5349,18 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>1501923.203468</t>
         </is>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>1.230779</v>
       </c>
     </row>
@@ -4884,10 +5422,18 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>1507166.028023</t>
         </is>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>1.255608</v>
       </c>
     </row>
@@ -4949,10 +5495,18 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>1493939.757347</t>
         </is>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>1.221554</v>
       </c>
     </row>
@@ -5014,10 +5568,18 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>1479456.424713</t>
         </is>
       </c>
-      <c r="Q70" t="n">
+      <c r="S70" t="n">
         <v>1.264507</v>
       </c>
     </row>
@@ -5079,10 +5641,18 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
           <t>1527322.530746</t>
         </is>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>1.748647</v>
       </c>
     </row>
@@ -5144,10 +5714,18 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
           <t>1474988.460541</t>
         </is>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>1.26406</v>
       </c>
     </row>
@@ -5209,10 +5787,18 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
           <t>1505848.169327</t>
         </is>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>1.245286</v>
       </c>
     </row>
@@ -5274,10 +5860,18 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
           <t>1546791.791916</t>
         </is>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>1.243132</v>
       </c>
     </row>
@@ -5339,10 +5933,18 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
           <t>1491500.139236</t>
         </is>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>1.218872</v>
       </c>
     </row>
@@ -5404,10 +6006,18 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
           <t>1552410.721779</t>
         </is>
       </c>
-      <c r="Q76" t="n">
+      <c r="S76" t="n">
         <v>1.234842</v>
       </c>
     </row>
@@ -5469,10 +6079,18 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
           <t>1502971.64917</t>
         </is>
       </c>
-      <c r="Q77" t="n">
+      <c r="S77" t="n">
         <v>1.240694</v>
       </c>
     </row>
@@ -5534,10 +6152,18 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
           <t>1545722.484589</t>
         </is>
       </c>
-      <c r="Q78" t="n">
+      <c r="S78" t="n">
         <v>1.246221</v>
       </c>
     </row>
@@ -5599,10 +6225,18 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
           <t>1533449.888229</t>
         </is>
       </c>
-      <c r="Q79" t="n">
+      <c r="S79" t="n">
         <v>1.231063</v>
       </c>
     </row>
@@ -5664,10 +6298,18 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
           <t>1519829.034805</t>
         </is>
       </c>
-      <c r="Q80" t="n">
+      <c r="S80" t="n">
         <v>1.268733</v>
       </c>
     </row>
@@ -5729,10 +6371,18 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
           <t>1505511.403084</t>
         </is>
       </c>
-      <c r="Q81" t="n">
+      <c r="S81" t="n">
         <v>1.264669</v>
       </c>
     </row>
@@ -5794,10 +6444,18 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
           <t>1491625.905037</t>
         </is>
       </c>
-      <c r="Q82" t="n">
+      <c r="S82" t="n">
         <v>1.247968</v>
       </c>
     </row>
@@ -5859,10 +6517,18 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
           <t>1527778.506279</t>
         </is>
       </c>
-      <c r="Q83" t="n">
+      <c r="S83" t="n">
         <v>1.26276</v>
       </c>
     </row>
@@ -5924,10 +6590,18 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
           <t>1476029.753685</t>
         </is>
       </c>
-      <c r="Q84" t="n">
+      <c r="S84" t="n">
         <v>1.240206</v>
       </c>
     </row>
@@ -5989,10 +6663,18 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
           <t>1513825.058937</t>
         </is>
       </c>
-      <c r="Q85" t="n">
+      <c r="S85" t="n">
         <v>1.266783</v>
       </c>
     </row>
@@ -6054,10 +6736,18 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
           <t>1480219.364166</t>
         </is>
       </c>
-      <c r="Q86" t="n">
+      <c r="S86" t="n">
         <v>1.248334</v>
       </c>
     </row>
@@ -6119,10 +6809,18 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
           <t>1483948.230743</t>
         </is>
       </c>
-      <c r="Q87" t="n">
+      <c r="S87" t="n">
         <v>1.239109</v>
       </c>
     </row>
@@ -6184,10 +6882,18 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
           <t>1506412.625313</t>
         </is>
       </c>
-      <c r="Q88" t="n">
+      <c r="S88" t="n">
         <v>1.237565</v>
       </c>
     </row>
@@ -6249,10 +6955,18 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
           <t>1498013.734818</t>
         </is>
       </c>
-      <c r="Q89" t="n">
+      <c r="S89" t="n">
         <v>1.234111</v>
       </c>
     </row>
@@ -6314,10 +7028,18 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
           <t>1494242.548943</t>
         </is>
       </c>
-      <c r="Q90" t="n">
+      <c r="S90" t="n">
         <v>1.237931</v>
       </c>
     </row>
@@ -6379,10 +7101,18 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
           <t>1482487.916946</t>
         </is>
       </c>
-      <c r="Q91" t="n">
+      <c r="S91" t="n">
         <v>1.259468</v>
       </c>
     </row>
@@ -6444,10 +7174,18 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
           <t>1483269.929886</t>
         </is>
       </c>
-      <c r="Q92" t="n">
+      <c r="S92" t="n">
         <v>1.240328</v>
       </c>
     </row>
@@ -6509,10 +7247,18 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
           <t>1486059.427261</t>
         </is>
       </c>
-      <c r="Q93" t="n">
+      <c r="S93" t="n">
         <v>1.236752</v>
       </c>
     </row>
@@ -6574,10 +7320,18 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
           <t>1580662.727356</t>
         </is>
       </c>
-      <c r="Q94" t="n">
+      <c r="S94" t="n">
         <v>1.245123</v>
       </c>
     </row>
@@ -6639,10 +7393,18 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
           <t>1491140.723228</t>
         </is>
       </c>
-      <c r="Q95" t="n">
+      <c r="S95" t="n">
         <v>1.224521</v>
       </c>
     </row>
@@ -6704,10 +7466,18 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
           <t>1544851.660728</t>
         </is>
       </c>
-      <c r="Q96" t="n">
+      <c r="S96" t="n">
         <v>1.242198</v>
       </c>
     </row>
@@ -6769,10 +7539,18 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
           <t>1501226.425171</t>
         </is>
       </c>
-      <c r="Q97" t="n">
+      <c r="S97" t="n">
         <v>1.236509</v>
       </c>
     </row>
@@ -6834,10 +7612,18 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
           <t>1501744.389534</t>
         </is>
       </c>
-      <c r="Q98" t="n">
+      <c r="S98" t="n">
         <v>1.235574</v>
       </c>
     </row>
@@ -6852,7 +7638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6938,30 +7724,40 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>Env Provisioned</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Env Wifi</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>Wifi Version</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Modem version</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>EEPROM1</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>EEPROM2</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Temp Offset</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>EEPROM3</t>
         </is>
@@ -7025,30 +7821,38 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>0x0F51</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>0x23E0</t>
         </is>
@@ -7112,30 +7916,38 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>0x0F64</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>0x23E1</t>
         </is>
@@ -7199,30 +8011,38 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>0x0F71</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0x226A</t>
         </is>
@@ -7286,30 +8106,38 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>0x0F7F</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0x226B</t>
         </is>
@@ -7373,30 +8201,38 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>0x0F83</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>0x1868</t>
         </is>
@@ -7460,30 +8296,38 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>0x1867</t>
         </is>
@@ -7547,30 +8391,38 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>0x0F6A</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>0x186E</t>
         </is>
@@ -7634,30 +8486,38 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>0x0F5C</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>0x186D</t>
         </is>
@@ -7721,30 +8581,38 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>0x1D7C</t>
         </is>
@@ -7808,30 +8676,38 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>0x0F6E</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>0x1AB9</t>
         </is>
@@ -7895,30 +8771,38 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>0x0F60</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>0x1D48</t>
         </is>
@@ -7982,30 +8866,38 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>0x0F65</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>0x1D7B</t>
         </is>
@@ -8069,30 +8961,38 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>0x0F75</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>0x1AF5</t>
         </is>
@@ -8156,30 +9056,38 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>0x0F6E</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>0x1D47</t>
         </is>
@@ -8243,30 +9151,38 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>0x0FDC</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>0x1D7A</t>
         </is>
@@ -8330,30 +9246,38 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>0x0FE3</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>0x1AF4</t>
         </is>
@@ -8417,30 +9341,38 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>0x2259</t>
         </is>
@@ -8504,30 +9436,38 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>0x0F63</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>0x2257</t>
         </is>
@@ -8591,30 +9531,38 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>0x0F65</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>0x1AF3</t>
         </is>
@@ -8678,30 +9626,38 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>0x0F6D</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>0x1AF2</t>
         </is>
@@ -8765,30 +9721,38 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>0x0F7B</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>0x1D78</t>
         </is>
@@ -8852,30 +9816,38 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>0x0FA8</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>0x1D7F</t>
         </is>
@@ -8939,30 +9911,38 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>0x0F78</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>0x1D77</t>
         </is>
@@ -9026,30 +10006,38 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>0x0F77</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>0x1D46</t>
         </is>
@@ -9113,30 +10101,38 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>0x0F71</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>0x2254</t>
         </is>
@@ -9200,30 +10196,38 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>0x0F71</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>0x2253</t>
         </is>
@@ -9287,30 +10291,38 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>0x0FE0</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>0x1D45</t>
         </is>
@@ -9374,30 +10386,38 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>0x0F80</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>0x1AF7</t>
         </is>
@@ -9461,30 +10481,38 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>0x0F6F</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>0x1D7D</t>
         </is>
@@ -9548,30 +10576,38 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>0x0F5F</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>0x1FD1</t>
         </is>
@@ -9635,30 +10671,38 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>0x0F81</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>0x1D79</t>
         </is>
@@ -9722,30 +10766,38 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>0x0F4A</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>0x1D7E</t>
         </is>
@@ -9809,30 +10861,38 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>0x0F51</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>0x1D44</t>
         </is>
@@ -9896,30 +10956,38 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>0x0F62</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>0x23E2</t>
         </is>
@@ -9983,30 +11051,38 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>0x0F6E</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>0x1832</t>
         </is>
@@ -10070,30 +11146,38 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>0x0F9C</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>0x1AEF</t>
         </is>
@@ -10157,30 +11241,38 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>0x0FB9</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>0x186A</t>
         </is>
@@ -10244,30 +11336,38 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>0x0F75</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>0x1D49</t>
         </is>
@@ -10331,30 +11431,38 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>0x0F67</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>0x1869</t>
         </is>
@@ -10418,30 +11526,38 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>0x0F52</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>0x186B</t>
         </is>
@@ -10505,30 +11621,38 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>0x0F7C</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>0x186C</t>
         </is>
@@ -10592,30 +11716,38 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>0x0F72</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>0x1D43</t>
         </is>
@@ -10679,30 +11811,38 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>0x0F8E</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>0x23E3</t>
         </is>
@@ -10766,30 +11906,38 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>0x0F64</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>0x1FCC</t>
         </is>
@@ -10853,30 +12001,38 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>0x0F8B</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>0x1833</t>
         </is>
@@ -10940,30 +12096,38 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>0x0FC5</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>0x1FCB</t>
         </is>
@@ -11027,30 +12191,38 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>0x0F74</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>0x1D42</t>
         </is>
@@ -11114,30 +12286,38 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>0x0F6B</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>0x1D41</t>
         </is>
@@ -11201,30 +12381,38 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>0x0F5C</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>0x2252</t>
         </is>
@@ -11288,30 +12476,38 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>0x0F7C</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>0x2004</t>
         </is>
@@ -11375,30 +12571,38 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>0x0F8C</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>0x2005</t>
         </is>
@@ -11462,30 +12666,38 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>0x0FD7</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>0x2251</t>
         </is>
@@ -11549,30 +12761,38 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>0x0F66</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>0x23E4</t>
         </is>
@@ -11636,30 +12856,38 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>0x0F80</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="W55" t="inlineStr">
         <is>
           <t>0x23E5</t>
         </is>
@@ -11723,30 +12951,38 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>0x0F69</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="W56" t="inlineStr">
         <is>
           <t>0x1ABF</t>
         </is>
@@ -11810,30 +13046,38 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>0x0F6C</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="W57" t="inlineStr">
         <is>
           <t>0x1ABE</t>
         </is>
@@ -11897,30 +13141,38 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>0x0FED</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="W58" t="inlineStr">
         <is>
           <t>0x1AC0</t>
         </is>
@@ -11984,30 +13236,38 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>0x0F65</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>0x1AC1</t>
         </is>
@@ -12071,30 +13331,38 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>0x0FA1</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="W60" t="inlineStr">
         <is>
           <t>0x15E4</t>
         </is>
@@ -12158,30 +13426,38 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>0x0F74</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="W61" t="inlineStr">
         <is>
           <t>0x15E5</t>
         </is>
@@ -12245,30 +13521,38 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>0x0F68</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>0x15E0</t>
         </is>
@@ -12332,30 +13616,38 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>0x0F85</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="W63" t="inlineStr">
         <is>
           <t>0x15AB</t>
         </is>
@@ -12419,30 +13711,38 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>0x0F5C</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="W64" t="inlineStr">
         <is>
           <t>0x2007</t>
         </is>
@@ -12506,30 +13806,38 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>0x0F5C</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="W65" t="inlineStr">
         <is>
           <t>0x1834</t>
         </is>
@@ -12593,30 +13901,38 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>0x0FC5</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="W66" t="inlineStr">
         <is>
           <t>0x1835</t>
         </is>
@@ -12680,30 +13996,38 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>0x15E1</t>
         </is>
@@ -12767,30 +14091,38 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>0x0F99</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="W68" t="inlineStr">
         <is>
           <t>0x15AA</t>
         </is>
@@ -12854,30 +14186,38 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>0x0F71</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="W69" t="inlineStr">
         <is>
           <t>0x2006</t>
         </is>
@@ -12941,30 +14281,38 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>0x0F60</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>0x1831</t>
         </is>
@@ -13028,30 +14376,38 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>0x0FE0</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="W71" t="inlineStr">
         <is>
           <t>0x186F</t>
         </is>
@@ -13115,30 +14471,38 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>0x0F96</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="W72" t="inlineStr">
         <is>
           <t>0x2256</t>
         </is>
@@ -13202,30 +14566,38 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="W73" t="inlineStr">
         <is>
           <t>0x2255</t>
         </is>
@@ -13289,30 +14661,38 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>0x0F8A</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="W74" t="inlineStr">
         <is>
           <t>0x1ABD</t>
         </is>
@@ -13376,30 +14756,38 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>0x0F67</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>0x15E2</t>
         </is>
@@ -13463,30 +14851,38 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>0x0F66</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>0x15AC</t>
         </is>
@@ -13550,30 +14946,38 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>0x0F6D</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="V77" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="W77" t="inlineStr">
         <is>
           <t>0x15AD</t>
         </is>
@@ -13637,30 +15041,38 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>0x0F62</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="V78" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="W78" t="inlineStr">
         <is>
           <t>0x1ABC</t>
         </is>
@@ -13724,30 +15136,38 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>0x0F5A</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="V79" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="W79" t="inlineStr">
         <is>
           <t>0x1FFF</t>
         </is>
@@ -13811,30 +15231,38 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>0x0F70</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="V80" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="W80" t="inlineStr">
         <is>
           <t>0x15E3</t>
         </is>
@@ -13898,30 +15326,38 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>0x0F72</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="V81" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>0x1ABA</t>
         </is>
@@ -13985,30 +15421,38 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="U82" t="inlineStr">
         <is>
           <t>0x0FB4</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="V82" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="W82" t="inlineStr">
         <is>
           <t>0x1ABB</t>
         </is>
@@ -14072,30 +15516,38 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="U83" t="inlineStr">
         <is>
           <t>0x0FD8</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="V83" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="W83" t="inlineStr">
         <is>
           <t>0x15DF</t>
         </is>
@@ -14159,30 +15611,38 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>0x0F70</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="V84" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>0x1839</t>
         </is>
@@ -14246,30 +15706,38 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="U85" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="V85" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="W85" t="inlineStr">
         <is>
           <t>0x1FC9</t>
         </is>
@@ -14333,30 +15801,38 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="U86" t="inlineStr">
         <is>
           <t>0x0F71</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
+      <c r="V86" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="W86" t="inlineStr">
         <is>
           <t>0x1FCA</t>
         </is>
@@ -14420,30 +15896,38 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>0x0F76</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="V87" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="W87" t="inlineStr">
         <is>
           <t>0x2258</t>
         </is>
@@ -14507,30 +15991,38 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>0x0F68</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
+      <c r="V88" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>0x1FCF</t>
         </is>
@@ -14594,30 +16086,38 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>0x0FA3</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
+      <c r="V89" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U89" t="inlineStr">
+      <c r="W89" t="inlineStr">
         <is>
           <t>0x1FD0</t>
         </is>
@@ -14681,30 +16181,38 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr">
+      <c r="U90" t="inlineStr">
         <is>
           <t>0x0F78</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="V90" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U90" t="inlineStr">
+      <c r="W90" t="inlineStr">
         <is>
           <t>0x1837</t>
         </is>
@@ -14768,30 +16276,38 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="U91" t="inlineStr">
         <is>
           <t>0x0F6A</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
+      <c r="V91" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U91" t="inlineStr">
+      <c r="W91" t="inlineStr">
         <is>
           <t>0x1836</t>
         </is>
@@ -14855,30 +16371,38 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="U92" t="inlineStr">
         <is>
           <t>0x0F73</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="V92" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr">
+      <c r="W92" t="inlineStr">
         <is>
           <t>0x15A9</t>
         </is>
@@ -14942,30 +16466,38 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="U93" t="inlineStr">
         <is>
           <t>0x0F76</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr">
+      <c r="V93" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr">
+      <c r="W93" t="inlineStr">
         <is>
           <t>0x15E7</t>
         </is>
@@ -15029,30 +16561,38 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="U94" t="inlineStr">
         <is>
           <t>0x0F68</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="V94" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U94" t="inlineStr">
+      <c r="W94" t="inlineStr">
         <is>
           <t>0x1FCD</t>
         </is>
@@ -15116,30 +16656,38 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>0x0FB2</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="V95" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr">
+      <c r="W95" t="inlineStr">
         <is>
           <t>0x2000</t>
         </is>
@@ -15203,30 +16751,38 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>0x0F5E</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="V96" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr">
+      <c r="W96" t="inlineStr">
         <is>
           <t>0x2001</t>
         </is>
@@ -15290,30 +16846,38 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="U97" t="inlineStr">
         <is>
           <t>0x0F83</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
+      <c r="V97" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr">
+      <c r="W97" t="inlineStr">
         <is>
           <t>0x2002</t>
         </is>
@@ -15377,30 +16941,38 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="U98" t="inlineStr">
         <is>
           <t>0x0F7B</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
+      <c r="V98" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr">
+      <c r="W98" t="inlineStr">
         <is>
           <t>0x2003</t>
         </is>
@@ -15464,30 +17036,38 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="U99" t="inlineStr">
         <is>
           <t>0x0F82</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr">
+      <c r="V99" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U99" t="inlineStr">
+      <c r="W99" t="inlineStr">
         <is>
           <t>0x1FCE</t>
         </is>
@@ -15551,30 +17131,38 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
           <t>2.4.2(ESP32C3-SPI)</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>BG772AGLAAR01A05_03.201.03.201</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>0x4190</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="U100" t="inlineStr">
         <is>
           <t>0x0F64</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="V100" t="inlineStr">
         <is>
           <t>0x0000</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>0x1AF1</t>
         </is>
